--- a/seronetTemplates/34861167/PMID34861167.xlsx
+++ b/seronetTemplates/34861167/PMID34861167.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/34861167/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F589C1C7-FFF2-B540-A212-47F9FADA25C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A55AC-158F-F947-B177-C2AD95EB7B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="500" windowWidth="25560" windowHeight="20240" xr2:uid="{461B967D-CA3C-4314-BFE0-FEF5EE222451}"/>
+    <workbookView xWindow="10280" yWindow="500" windowWidth="25560" windowHeight="19980" xr2:uid="{461B967D-CA3C-4314-BFE0-FEF5EE222451}"/>
   </bookViews>
   <sheets>
     <sheet name="SeroNet Registry Template" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1487">
   <si>
     <t>basic_study_design</t>
   </si>
@@ -5496,6 +5496,9 @@
   </si>
   <si>
     <t>PMID34861167_protocol-01.txt</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -5988,14 +5991,14 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7221,8 +7224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C904F6B-13A5-4A16-A6D7-2A23D3BA4B41}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7409,7 +7412,9 @@
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
@@ -7915,7 +7920,7 @@
       <c r="B80" s="66" t="s">
         <v>1485</v>
       </c>
-      <c r="C80" s="69" t="s">
+      <c r="C80" s="67" t="s">
         <v>1466</v>
       </c>
       <c r="D80" s="5"/>
@@ -13033,20 +13038,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="H1" s="69" t="s">
         <v>967</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="R1" t="s">
         <v>968</v>
       </c>
